--- a/server/reports/attendance_report_677614e51cf7ea8bb5cfb43f_2026-01-20.xlsx
+++ b/server/reports/attendance_report_677614e51cf7ea8bb5cfb43f_2026-01-20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>1RV24CS406</t>
+  </si>
+  <si>
+    <t>Chakradhar Reddy</t>
+  </si>
+  <si>
+    <t>1RV24CS404</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>1RV24CS423</t>
   </si>
 </sst>
 </file>
@@ -450,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G61"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -787,7 +799,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -796,13 +808,13 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -819,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -833,21 +845,1033 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
         <v>15</v>
       </c>
     </row>

--- a/server/reports/attendance_report_677614e51cf7ea8bb5cfb43f_2026-01-20.xlsx
+++ b/server/reports/attendance_report_677614e51cf7ea8bb5cfb43f_2026-01-20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G65"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -1259,7 +1259,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1268,13 +1268,13 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
@@ -1636,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1665,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1803,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -1820,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1834,7 +1834,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1857,21 +1857,113 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
         <v>20</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
         <v>21</v>
       </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
         <v>15</v>
       </c>
     </row>
